--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3511430.651390016</v>
+        <v>3505709.03942213</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836237</v>
+        <v>6654055.582836238</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095095</v>
+        <v>806345.8827095093</v>
       </c>
     </row>
     <row r="9">
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>66.58496257157202</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>100.1775664810862</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>236.4863379225821</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>116.6604208310352</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>177.0380502675236</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>87.79723570473706</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,13 +1147,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481174</v>
+        <v>6.283679164004356</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>126.7477612906587</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,28 +1293,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>46.80807769362115</v>
       </c>
       <c r="D10" t="n">
-        <v>22.96159132124579</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>28.43919684076965</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>270.3808622796243</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>166.5552245218534</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>147.0633545968137</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.921725653453</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
@@ -1900,7 +1900,7 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>74.75769145492315</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,16 +2010,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>115.7930329126633</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2244,22 +2244,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>114.4746605491549</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>99.54876965751519</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>84.69473660442847</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>26.29813691385395</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>177.7766012698056</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>146.9083821604497</v>
       </c>
     </row>
     <row r="29">
@@ -2952,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>120.6353666620239</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>162.5701994818072</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3283,7 +3283,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -3365,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>84.10895172234474</v>
+        <v>203.2264676600915</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881751</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>113.0966634767444</v>
       </c>
       <c r="W40" t="n">
-        <v>164.9654595031134</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3793,7 +3793,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>186.4450056955696</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,19 +4188,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>132.4218048038476</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1187.828354776384</v>
+        <v>546.109828622464</v>
       </c>
       <c r="C2" t="n">
-        <v>818.8658378359718</v>
+        <v>546.109828622464</v>
       </c>
       <c r="D2" t="n">
-        <v>460.6001392292213</v>
+        <v>546.109828622464</v>
       </c>
       <c r="E2" t="n">
-        <v>74.81188663097703</v>
+        <v>546.109828622464</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>135.1239238328564</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>121.2005197714473</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>121.2005197714473</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4369,13 +4369,13 @@
         <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1289.01781586839</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1187.828354776384</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,28 +4412,28 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4515,22 +4515,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
         <v>53.94298182036445</v>
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1305.667163696621</v>
+        <v>1507.652482896327</v>
       </c>
       <c r="C5" t="n">
-        <v>936.7046467562093</v>
+        <v>1138.689965955915</v>
       </c>
       <c r="D5" t="n">
-        <v>578.4389481494588</v>
+        <v>780.4242673491644</v>
       </c>
       <c r="E5" t="n">
-        <v>192.6506955512146</v>
+        <v>780.4242673491644</v>
       </c>
       <c r="F5" t="n">
-        <v>185.7051948020111</v>
+        <v>773.478766599961</v>
       </c>
       <c r="G5" t="n">
-        <v>171.781790740602</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>171.781790740602</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2048.575150942547</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2048.575150942547</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>1695.806495672433</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X5" t="n">
-        <v>1695.806495672433</v>
+        <v>1507.652482896327</v>
       </c>
       <c r="Y5" t="n">
-        <v>1305.667163696621</v>
+        <v>1507.652482896327</v>
       </c>
     </row>
     <row r="6">
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036422</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.200144220494</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615926</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>418.6523285934728</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="C7" t="n">
-        <v>249.7161456655658</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>639.4449077370028</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>639.4449077370028</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>639.4449077370028</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>639.4449077370028</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X7" t="n">
-        <v>639.4449077370028</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y7" t="n">
-        <v>418.6523285934728</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1376.372217881286</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C8" t="n">
-        <v>1376.372217881286</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.106519274536</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762914</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862885</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834948</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="W8" t="n">
-        <v>1894.539591564834</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X8" t="n">
-        <v>1766.511549857098</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y8" t="n">
-        <v>1376.372217881286</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="9">
@@ -4859,73 +4859,73 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036376</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571346</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>246.136308669149</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>246.136308669149</v>
+        <v>680.8480976472212</v>
       </c>
       <c r="D10" t="n">
-        <v>222.942782082032</v>
+        <v>530.7314582348854</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>382.8183646524922</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>500.8207968750359</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>500.8207968750359</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>246.136308669149</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>246.136308669149</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>246.136308669149</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>246.136308669149</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5029,46 +5029,46 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K11" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L11" t="n">
-        <v>1797.117834600128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2330.649739272053</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N11" t="n">
-        <v>2877.428556330835</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O11" t="n">
-        <v>3757.39320666029</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
         <v>4461.783306331037</v>
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C12" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D12" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E12" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>2525.382582446538</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>2389.019482279157</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H12" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>2611.451764789527</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L12" t="n">
-        <v>2978.149925102192</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R12" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>438.2075193111406</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C13" t="n">
-        <v>438.2075193111406</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>438.2075193111406</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>438.2075193111406</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>438.2075193111406</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>270.5046826858595</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>124.2874959037173</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5214,37 +5214,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V13" t="n">
-        <v>909.2731541783409</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W13" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X13" t="n">
-        <v>619.8559841413803</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y13" t="n">
-        <v>619.8559841413803</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
@@ -5278,28 +5278,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L14" t="n">
-        <v>1797.117834600129</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2330.649739272054</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N14" t="n">
-        <v>2877.428556330836</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O14" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5308,22 +5308,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973185</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161915</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549404</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494848</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763699</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089887</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
@@ -5360,7 +5360,7 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L15" t="n">
         <v>794.200663232024</v>
@@ -5378,31 +5378,31 @@
         <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.56840828234</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>824.3287722635405</v>
+        <v>244.109877475479</v>
       </c>
       <c r="C16" t="n">
-        <v>655.3925893356336</v>
+        <v>244.109877475479</v>
       </c>
       <c r="D16" t="n">
-        <v>655.3925893356336</v>
+        <v>244.109877475479</v>
       </c>
       <c r="E16" t="n">
-        <v>507.4794957532405</v>
+        <v>244.109877475479</v>
       </c>
       <c r="F16" t="n">
-        <v>360.5895482553301</v>
+        <v>244.109877475479</v>
       </c>
       <c r="G16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5439,7 +5439,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5451,37 +5451,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T16" t="n">
-        <v>1764.65758193153</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U16" t="n">
-        <v>1764.65758193153</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V16" t="n">
-        <v>1509.973093725643</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="W16" t="n">
-        <v>1220.555923688682</v>
+        <v>874.5404723472661</v>
       </c>
       <c r="X16" t="n">
-        <v>992.5663727906651</v>
+        <v>646.5509214492488</v>
       </c>
       <c r="Y16" t="n">
-        <v>992.5663727906651</v>
+        <v>425.7583423057187</v>
       </c>
     </row>
     <row r="17">
@@ -5497,46 +5497,46 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551615</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K17" t="n">
-        <v>932.5990189467752</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L17" t="n">
-        <v>1797.11783460013</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2330.649739272054</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N17" t="n">
-        <v>2877.428556330836</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O17" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
@@ -5606,28 +5606,28 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
         <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>557.3941514382108</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>557.3941514382108</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>557.3941514382108</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5697,28 +5697,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T19" t="n">
-        <v>1839.380806596962</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U19" t="n">
-        <v>1550.277939722606</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V19" t="n">
-        <v>1295.593451516719</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W19" t="n">
-        <v>1006.176281479758</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X19" t="n">
-        <v>778.1867305817409</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y19" t="n">
-        <v>557.3941514382108</v>
+        <v>171.0738540998319</v>
       </c>
     </row>
     <row r="20">
@@ -5752,28 +5752,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427193</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L20" t="n">
-        <v>1803.682313196074</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M20" t="n">
-        <v>2337.214217867998</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N20" t="n">
-        <v>3196.009277420603</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R20" t="n">
         <v>4778.05172241972</v>
@@ -5834,25 +5834,25 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3605.731835219849</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>3605.731835219849</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>3455.615195807513</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>3307.70210222512</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>3160.812154727209</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>3160.812154727209</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>3014.594967945067</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>4688.221265177249</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S22" t="n">
-        <v>4688.221265177249</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T22" t="n">
-        <v>4466.454649746775</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U22" t="n">
-        <v>4177.351782872418</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>4177.351782872418</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>3887.934612835457</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>3887.934612835457</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>3787.380300050088</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5965,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.44016540742</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972665</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M23" t="n">
-        <v>2016.310259422546</v>
+        <v>2750.97154338438</v>
       </c>
       <c r="N23" t="n">
-        <v>2996.062531649193</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O23" t="n">
-        <v>3757.39320666029</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
@@ -6022,19 +6022,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468568</v>
@@ -6068,19 +6068,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320238</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
         <v>2125.96131142685</v>
@@ -6089,7 +6089,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6098,7 +6098,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
         <v>2043.809373447819</v>
@@ -6107,13 +6107,13 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>654.7198286198654</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>654.7198286198654</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>654.7198286198654</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6150,16 +6150,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
         <v>1646.12566951853</v>
@@ -6174,25 +6174,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689059</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258585</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U25" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V25" t="n">
-        <v>909.2731541783413</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W25" t="n">
-        <v>909.2731541783413</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X25" t="n">
-        <v>681.283603280324</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
-        <v>654.7198286198654</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
         <v>2005.253839749764</v>
@@ -6211,7 +6211,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
         <v>850.213983755162</v>
@@ -6223,55 +6223,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>953.4728278125317</v>
       </c>
       <c r="L26" t="n">
-        <v>1971.087962216427</v>
+        <v>1404.507041060941</v>
       </c>
       <c r="M26" t="n">
-        <v>2949.638265046256</v>
+        <v>2383.057343890769</v>
       </c>
       <c r="N26" t="n">
-        <v>3496.417082105038</v>
+        <v>3362.809616117416</v>
       </c>
       <c r="O26" t="n">
-        <v>3999.389552984375</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107236</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>411.1769646560685</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="C28" t="n">
-        <v>411.1769646560685</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D28" t="n">
-        <v>411.1769646560685</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E28" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6411,25 +6411,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1686.940684347277</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1465.174068916803</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1176.071202042446</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V28" t="n">
-        <v>921.3867138365592</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W28" t="n">
-        <v>631.9695437995987</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X28" t="n">
-        <v>631.9695437995987</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y28" t="n">
-        <v>411.1769646560685</v>
+        <v>243.4741280307875</v>
       </c>
     </row>
     <row r="29">
@@ -6457,7 +6457,7 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
@@ -6466,25 +6466,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>1009.454103530278</v>
+        <v>1014.851249206415</v>
       </c>
       <c r="L29" t="n">
-        <v>1460.488316778687</v>
+        <v>1465.885462454824</v>
       </c>
       <c r="M29" t="n">
-        <v>2439.038619608516</v>
+        <v>1999.417367126749</v>
       </c>
       <c r="N29" t="n">
-        <v>2985.817436667298</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O29" t="n">
-        <v>3865.782086996753</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161933</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>217.4149401676105</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C31" t="n">
-        <v>217.4149401676105</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D31" t="n">
-        <v>217.4149401676105</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E31" t="n">
-        <v>217.4149401676105</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F31" t="n">
         <v>95.56103444839442</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.060509258584</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U31" t="n">
-        <v>1163.957642384228</v>
+        <v>1883.949150983575</v>
       </c>
       <c r="V31" t="n">
-        <v>909.2731541783409</v>
+        <v>1629.264662777688</v>
       </c>
       <c r="W31" t="n">
-        <v>619.8559841413803</v>
+        <v>1339.847492740728</v>
       </c>
       <c r="X31" t="n">
-        <v>619.8559841413803</v>
+        <v>1111.85794184271</v>
       </c>
       <c r="Y31" t="n">
-        <v>399.0634049978502</v>
+        <v>891.0653626991802</v>
       </c>
     </row>
     <row r="32">
@@ -6679,46 +6679,46 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1617.665844847779</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2151.197749519704</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N32" t="n">
-        <v>3130.950021746351</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O32" t="n">
-        <v>4010.914672075805</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
         <v>4653.975400188666</v>
@@ -6727,25 +6727,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6773,28 +6773,28 @@
         <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
         <v>2436.460902902952</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>709.4168978689405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>540.4807149410336</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
         <v>95.56103444839442</v>
@@ -6882,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1866.513008862232</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T34" t="n">
-        <v>1866.513008862232</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U34" t="n">
-        <v>1702.300686153336</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V34" t="n">
-        <v>1447.616197947449</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W34" t="n">
-        <v>1158.199027910488</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>930.2094770124706</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>709.4168978689405</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
@@ -6925,34 +6925,34 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1407.474004094473</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>1941.005908766398</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>2920.758180993045</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>3800.7228313225</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
         <v>4195.497197679678</v>
@@ -6970,19 +6970,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6992,43 +6992,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O36" t="n">
         <v>2125.96131142685</v>
@@ -7037,7 +7037,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7046,16 +7046,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V36" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X36" t="n">
         <v>1346.568408282342</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>340.7998052124422</v>
+        <v>578.4172407837245</v>
       </c>
       <c r="C37" t="n">
-        <v>340.7998052124422</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D37" t="n">
-        <v>340.7998052124422</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E37" t="n">
-        <v>192.8867116300491</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F37" t="n">
-        <v>192.8867116300491</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G37" t="n">
-        <v>192.8867116300491</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H37" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
@@ -7119,28 +7119,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
-        <v>1453.060509258584</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U37" t="n">
-        <v>1163.957642384228</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V37" t="n">
-        <v>1078.99910529095</v>
+        <v>1270.275454794455</v>
       </c>
       <c r="W37" t="n">
-        <v>789.5819352539896</v>
+        <v>980.8582847574944</v>
       </c>
       <c r="X37" t="n">
-        <v>561.5923843559723</v>
+        <v>980.8582847574944</v>
       </c>
       <c r="Y37" t="n">
-        <v>340.7998052124422</v>
+        <v>760.0657056139643</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551622</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7174,46 +7174,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1390.197710791128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>1923.729615463053</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>2903.481887689699</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>3783.446538019154</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C39" t="n">
-        <v>2980.089005086361</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D39" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E39" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F39" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G39" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>2298.517587917026</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I39" t="n">
-        <v>2279.510296318564</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>2373.187565809181</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>2978.149925102194</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
-        <v>3425.42625032451</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O39" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P39" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S39" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T39" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W39" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3796.153667990894</v>
+        <v>411.3871648742117</v>
       </c>
       <c r="C40" t="n">
-        <v>3627.217485062987</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D40" t="n">
-        <v>3477.100845650651</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E40" t="n">
-        <v>3329.187752068258</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F40" t="n">
-        <v>3182.297804570348</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M40" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N40" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T40" t="n">
-        <v>4688.221265177249</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U40" t="n">
-        <v>4399.118398302892</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V40" t="n">
-        <v>4144.433910097006</v>
+        <v>1331.23492978296</v>
       </c>
       <c r="W40" t="n">
-        <v>3977.802132821133</v>
+        <v>1041.817759745999</v>
       </c>
       <c r="X40" t="n">
-        <v>3977.802132821133</v>
+        <v>813.8282088479815</v>
       </c>
       <c r="Y40" t="n">
-        <v>3977.802132821133</v>
+        <v>593.0356297044514</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
         <v>2005.253839749764</v>
@@ -7396,43 +7396,43 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1069.293752345675</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M41" t="n">
-        <v>1687.484443350884</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N41" t="n">
-        <v>2667.236715577531</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O41" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7441,22 +7441,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
@@ -7487,10 +7487,10 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K42" t="n">
         <v>427.5025029193589</v>
@@ -7508,22 +7508,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T42" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>726.3303343661177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C43" t="n">
-        <v>557.3941514382108</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D43" t="n">
-        <v>557.3941514382108</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E43" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
         <v>95.56103444839442</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1674.827124689058</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
-        <v>1385.724257814702</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V43" t="n">
-        <v>1197.395969233318</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W43" t="n">
-        <v>907.9787991963574</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X43" t="n">
-        <v>907.9787991963574</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y43" t="n">
-        <v>907.9787991963574</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1586.925993846823</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2120.457898518747</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>2667.23671557753</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>3547.201365906984</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
@@ -7724,13 +7724,13 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
         <v>794.2006632320242</v>
@@ -7745,22 +7745,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7769,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3795.480907275125</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C46" t="n">
-        <v>3626.544724347218</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D46" t="n">
-        <v>3476.428084934882</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E46" t="n">
-        <v>3328.514991352489</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F46" t="n">
-        <v>3328.514991352489</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G46" t="n">
-        <v>3160.812154727208</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M46" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N46" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P46" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>4586.365838246546</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
-        <v>4586.365838246546</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>4586.365838246546</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V46" t="n">
-        <v>4331.68135004066</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W46" t="n">
-        <v>4197.921951248894</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X46" t="n">
-        <v>4197.921951248894</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y46" t="n">
-        <v>3977.129372105364</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050819</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270196</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093291</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>411.0304280898992</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,16 +8704,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8932,7 +8932,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>241.9338129178262</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8941,16 +8941,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>317.5146261106152</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9178,16 +9178,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>315.1679217109325</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>248.8400772687157</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>260.9678829613734</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9877,25 +9877,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>169.5026663584973</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>77.35795430877005</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10114,28 +10114,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>226.0494095077361</v>
+        <v>231.5010718068643</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>229.7657919764152</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10585,25 +10585,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>17.45080131651036</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10834,19 +10834,19 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P38" t="n">
-        <v>83.1672211894936</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,22 +11059,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M41" t="n">
-        <v>85.51392558917598</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>198.7154374299943</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>67.91322356906844</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>16.14213605696671</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13.27675566008392</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>18.96245366221456</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270141</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23898,16 +23898,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983812</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>103.7559163635059</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>105.0742887270142</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>119.0358836945796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24372,19 +24372,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>192.2865164382409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>11.99242406163626</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>71.67627119164513</v>
       </c>
     </row>
     <row r="29">
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.78568136090738</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>123.6416387238057</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>168.0286916014833</v>
+        <v>48.91117566373649</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>139.0409798470836</v>
       </c>
       <c r="W40" t="n">
-        <v>121.5575388334777</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>65.69263762825835</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,19 +26076,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>154.1011935327434</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>692394.6160973812</v>
+        <v>692394.6160973813</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>692394.6160973815</v>
+        <v>692394.6160973813</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>692394.6160973815</v>
+        <v>692394.6160973813</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>692394.6160973815</v>
+        <v>692394.6160973813</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>692394.6160973815</v>
+        <v>692394.6160973812</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>692394.6160973812</v>
+        <v>692394.6160973813</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778545</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778548</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778549</v>
       </c>
       <c r="E2" t="n">
+        <v>714747.2163965704</v>
+      </c>
+      <c r="F2" t="n">
+        <v>714747.2163965706</v>
+      </c>
+      <c r="G2" t="n">
         <v>714747.2163965703</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>714747.2163965703</v>
+      </c>
+      <c r="I2" t="n">
+        <v>714747.2163965704</v>
+      </c>
+      <c r="J2" t="n">
+        <v>714747.2163965707</v>
+      </c>
+      <c r="K2" t="n">
         <v>714747.2163965701</v>
-      </c>
-      <c r="G2" t="n">
-        <v>714747.2163965706</v>
-      </c>
-      <c r="H2" t="n">
-        <v>714747.21639657</v>
-      </c>
-      <c r="I2" t="n">
-        <v>714747.2163965703</v>
-      </c>
-      <c r="J2" t="n">
-        <v>714747.2163965704</v>
-      </c>
-      <c r="K2" t="n">
-        <v>714747.2163965703</v>
       </c>
       <c r="L2" t="n">
         <v>714747.2163965704</v>
       </c>
       <c r="M2" t="n">
-        <v>714747.2163965704</v>
+        <v>714747.2163965701</v>
       </c>
       <c r="N2" t="n">
         <v>714747.2163965702</v>
       </c>
       <c r="O2" t="n">
-        <v>714747.2163965706</v>
+        <v>714747.2163965701</v>
       </c>
       <c r="P2" t="n">
-        <v>714747.2163965702</v>
+        <v>714747.2163965708</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.42310613632435e-10</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="G4" t="n">
         <v>18148.49231918995</v>
       </c>
       <c r="H4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="I4" t="n">
-        <v>18148.49231918992</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="J4" t="n">
+        <v>18148.49231918994</v>
+      </c>
+      <c r="K4" t="n">
         <v>18148.49231918993</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>18148.49231918994</v>
       </c>
-      <c r="L4" t="n">
-        <v>18148.49231918993</v>
-      </c>
       <c r="M4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="N4" t="n">
+        <v>18148.49231918989</v>
+      </c>
+      <c r="O4" t="n">
+        <v>18148.4923191899</v>
+      </c>
+      <c r="P4" t="n">
         <v>18148.49231918994</v>
-      </c>
-      <c r="O4" t="n">
-        <v>18148.49231918994</v>
-      </c>
-      <c r="P4" t="n">
-        <v>18148.49231918993</v>
       </c>
     </row>
     <row r="5">
@@ -26475,13 +26475,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371364</v>
@@ -26493,7 +26493,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371366</v>
@@ -26511,7 +26511,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-117238.0512572274</v>
+        <v>-117238.0512572271</v>
       </c>
       <c r="C6" t="n">
-        <v>472729.8279573173</v>
+        <v>472729.8279573172</v>
       </c>
       <c r="D6" t="n">
-        <v>472729.8279573173</v>
+        <v>472729.8279573175</v>
       </c>
       <c r="E6" t="n">
-        <v>-127162.2081697401</v>
+        <v>-127834.1630719977</v>
       </c>
       <c r="F6" t="n">
-        <v>600215.2058236665</v>
+        <v>599543.2509214091</v>
       </c>
       <c r="G6" t="n">
-        <v>600215.205823667</v>
+        <v>599543.2509214089</v>
       </c>
       <c r="H6" t="n">
-        <v>600215.2058236664</v>
+        <v>599543.2509214089</v>
       </c>
       <c r="I6" t="n">
-        <v>600215.2058236664</v>
+        <v>599543.2509214089</v>
       </c>
       <c r="J6" t="n">
-        <v>423791.9866310742</v>
+        <v>423120.0317288162</v>
       </c>
       <c r="K6" t="n">
-        <v>600215.2058236668</v>
+        <v>599543.2509214086</v>
       </c>
       <c r="L6" t="n">
-        <v>600215.2058236669</v>
+        <v>599543.250921409</v>
       </c>
       <c r="M6" t="n">
-        <v>470572.8909847221</v>
+        <v>469900.9360824638</v>
       </c>
       <c r="N6" t="n">
-        <v>600215.2058236666</v>
+        <v>599543.2509214088</v>
       </c>
       <c r="O6" t="n">
-        <v>600215.205823667</v>
+        <v>599543.2509214086</v>
       </c>
       <c r="P6" t="n">
-        <v>600215.2058236666</v>
+        <v>599543.2509214093</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26758,7 +26758,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762118</v>
+        <v>712.0330363762114</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27381,16 +27381,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>85.34635367328923</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>286.0603721749674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27587,25 +27587,25 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>117.5062691663786</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>63.37316471551392</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>177.2978320982129</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>35.27089541382604</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>2.793929914413724</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27785,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>137.2378697533472</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>48.19472341080734</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>242.9833393878103</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,28 +28013,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>120.4387434050067</v>
       </c>
       <c r="D10" t="n">
-        <v>125.6538816969666</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,22 +28055,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>-7.434426879267359e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30513,7 +30513,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32554,7 +32554,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138795</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
         <v>44.86703772844668</v>
@@ -32709,40 +32709,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32861,43 +32861,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
         <v>0.1071911508780295</v>
@@ -34780,7 +34780,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856228</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,13 +35333,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L11" t="n">
-        <v>866.6205424822314</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L14" t="n">
-        <v>697.5239273101583</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>654.7059126660156</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302265</v>
@@ -35898,16 +35898,16 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509644</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P17" t="n">
         <v>720.5606943908542</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
         <v>661.3366991265651</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427824</v>
+        <v>800.2926980400157</v>
       </c>
       <c r="M20" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>867.4697571238438</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340053</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687127</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554006</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427827</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302269</v>
+        <v>787.7611930989425</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248957</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>769.0208838495928</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037196</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222484</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,25 +36597,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>506.6939529138978</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>476.1199405281419</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222478</v>
@@ -36834,28 +36834,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>563.2406960631366</v>
+        <v>568.6923583622648</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>685.3559063687474</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37305,25 +37305,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>473.0409157088425</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
         <v>463.1092954636242</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
         <v>661.3366991265652</v>
@@ -37554,19 +37554,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P38" t="n">
-        <v>481.9292074088655</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37779,22 +37779,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M41" t="n">
-        <v>624.4350414194028</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908545</v>
@@ -37803,7 +37803,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38016,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>654.3055518223265</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
@@ -38031,7 +38031,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P44" t="n">
         <v>720.5606943908545</v>
@@ -38040,7 +38040,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3505709.03942213</v>
+        <v>3509114.53054658</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836238</v>
+        <v>6654055.582836236</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095093</v>
+        <v>806345.882709509</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>66.58496257157202</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -718,7 +718,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>71.30002018062847</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>223.1498336210771</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>236.4863379225821</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>12.40685096944506</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>177.0380502675236</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>120.2570633735995</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>6.283679164004356</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>325.2557485598865</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>46.80807769362115</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>171.7498680634317</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>57.65292080639853</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1584,13 +1584,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>270.3808622796243</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>147.0633545968137</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1824,16 +1824,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>43.54113333379253</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>74.75769145492315</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>114.4746605491549</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>84.69473660442847</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>226.1515598957208</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>59.90320919298912</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>146.9083821604497</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2952,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>71.67037196991727</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>113.5103646250816</v>
       </c>
     </row>
     <row r="32">
@@ -3283,7 +3283,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>67.337423715133</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,19 +3477,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>203.2264676600915</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3720,7 +3720,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>113.0966634767444</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T41" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>163.689844124971</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>163.689844124971</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>546.109828622464</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C2" t="n">
-        <v>546.109828622464</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D2" t="n">
-        <v>546.109828622464</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>546.109828622464</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>135.1239238328564</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>121.2005197714473</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>121.2005197714473</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2152.732416223701</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1799.963760953587</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1426.498002692507</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.109828622464</v>
+        <v>1036.358670716696</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4427,13 +4427,13 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4527,13 +4527,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1507.652482896327</v>
+        <v>877.1727159660345</v>
       </c>
       <c r="C5" t="n">
-        <v>1138.689965955915</v>
+        <v>877.1727159660345</v>
       </c>
       <c r="D5" t="n">
-        <v>780.4242673491644</v>
+        <v>877.1727159660345</v>
       </c>
       <c r="E5" t="n">
-        <v>780.4242673491644</v>
+        <v>491.3844633677903</v>
       </c>
       <c r="F5" t="n">
-        <v>773.478766599961</v>
+        <v>80.3985585781827</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>66.4751545167736</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>66.4751545167736</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>1881.118241157406</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X5" t="n">
-        <v>1507.652482896327</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="Y5" t="n">
-        <v>1507.652482896327</v>
+        <v>877.1727159660345</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,22 +4646,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>519.8857516585174</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="C7" t="n">
-        <v>350.9495687306105</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>323.3278565882116</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>175.4147630058185</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600564</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600564</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600564</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600564</v>
+        <v>473.4444960005474</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1187.828354776384</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>818.8658378359718</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>460.6001392292213</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
@@ -4816,40 +4816,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2690.801940347511</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2690.801940347511</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2690.801940347511</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2690.801940347511</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2690.801940347511</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2338.033285077397</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1964.567526816317</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1574.428194840505</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C10" t="n">
-        <v>680.8480976472212</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>530.7314582348854</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>382.8183646524922</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -5007,7 +5007,7 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="11">
@@ -5029,10 +5029,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551621</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5041,22 +5041,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563072</v>
+        <v>888.4135721382786</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1339.447785386687</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483405</v>
+        <v>2317.998088216516</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542187</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P11" t="n">
         <v>4195.497197679678</v>
@@ -5111,7 +5111,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
         <v>114.5683260468565</v>
@@ -5120,28 +5120,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.56103444839442</v>
+        <v>656.6259356382594</v>
       </c>
       <c r="C13" t="n">
-        <v>95.56103444839442</v>
+        <v>487.6897527103525</v>
       </c>
       <c r="D13" t="n">
-        <v>95.56103444839442</v>
+        <v>487.6897527103525</v>
       </c>
       <c r="E13" t="n">
-        <v>95.56103444839442</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5202,7 +5202,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5214,37 +5214,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1253.788099626699</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V13" t="n">
-        <v>999.1036114208122</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="W13" t="n">
-        <v>725.9916293201816</v>
+        <v>1163.643339221624</v>
       </c>
       <c r="X13" t="n">
-        <v>498.0020784221642</v>
+        <v>935.6537883236062</v>
       </c>
       <c r="Y13" t="n">
-        <v>277.2094992786341</v>
+        <v>714.8612091800761</v>
       </c>
     </row>
     <row r="14">
@@ -5257,16 +5257,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
@@ -5278,19 +5278,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483405</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542187</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O14" t="n">
         <v>3482.142110232732</v>
@@ -5308,16 +5308,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5348,7 +5348,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
@@ -5357,25 +5357,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>244.109877475479</v>
+        <v>675.7429179653792</v>
       </c>
       <c r="C16" t="n">
-        <v>244.109877475479</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="D16" t="n">
-        <v>244.109877475479</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E16" t="n">
-        <v>244.109877475479</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F16" t="n">
-        <v>244.109877475479</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5439,7 +5439,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5451,37 +5451,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689057</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258583</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384227</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V16" t="n">
-        <v>1163.957642384227</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W16" t="n">
-        <v>874.5404723472661</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X16" t="n">
-        <v>646.5509214492488</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="Y16" t="n">
-        <v>425.7583423057187</v>
+        <v>857.3913827956189</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
@@ -5500,34 +5500,34 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483405</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542187</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O17" t="n">
         <v>3482.142110232732</v>
@@ -5545,22 +5545,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5612,22 +5612,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5676,7 +5676,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258583</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384227</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>909.27315417834</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W19" t="n">
-        <v>619.8559841413794</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X19" t="n">
-        <v>391.8664332433621</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.0738540998319</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="20">
@@ -5752,19 +5752,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1898.858917622688</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2432.390822294612</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>2979.169639353394</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
         <v>3482.142110232731</v>
@@ -5822,7 +5822,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5831,28 +5831,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5913,7 +5913,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5925,37 +5925,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W22" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X22" t="n">
-        <v>498.0020784221642</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786341</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
@@ -5995,16 +5995,16 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1971.087962216427</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2750.97154338438</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>3297.750360443163</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>3800.7228313225</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
         <v>4195.497197679678</v>
@@ -6022,19 +6022,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6174,25 +6174,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1780.96276986786</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T25" t="n">
-        <v>1559.196154437386</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U25" t="n">
-        <v>1270.093287563029</v>
+        <v>1416.310474345171</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.408799357142</v>
+        <v>1161.625986139284</v>
       </c>
       <c r="W25" t="n">
-        <v>725.9916293201816</v>
+        <v>872.2088161023238</v>
       </c>
       <c r="X25" t="n">
-        <v>498.0020784221642</v>
+        <v>644.2192652043065</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.2094992786341</v>
+        <v>423.4266860607763</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
         <v>2005.253839749764</v>
@@ -6211,67 +6211,67 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>953.4728278125317</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1404.507041060941</v>
+        <v>1364.144379432264</v>
       </c>
       <c r="M26" t="n">
-        <v>2383.057343890769</v>
+        <v>1897.676284104189</v>
       </c>
       <c r="N26" t="n">
-        <v>3362.809616117416</v>
+        <v>2877.428556330835</v>
       </c>
       <c r="O26" t="n">
-        <v>3865.782086996753</v>
+        <v>3757.39320666029</v>
       </c>
       <c r="P26" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6338,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>243.4741280307875</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C28" t="n">
-        <v>243.4741280307875</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D28" t="n">
-        <v>243.4741280307875</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258584</v>
+        <v>1895.835173990573</v>
       </c>
       <c r="U28" t="n">
-        <v>1163.957642384228</v>
+        <v>1606.732307116217</v>
       </c>
       <c r="V28" t="n">
-        <v>909.2731541783409</v>
+        <v>1352.04781891033</v>
       </c>
       <c r="W28" t="n">
-        <v>619.8559841413803</v>
+        <v>1062.630648873369</v>
       </c>
       <c r="X28" t="n">
-        <v>391.866433243363</v>
+        <v>834.6410979753522</v>
       </c>
       <c r="Y28" t="n">
-        <v>243.4741280307875</v>
+        <v>613.848518831822</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
@@ -6466,16 +6466,16 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>1014.851249206415</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1465.885462454824</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>1999.417367126749</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
         <v>3482.142110232732</v>
@@ -6496,19 +6496,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
@@ -6548,7 +6548,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6560,22 +6560,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>709.4168978689405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>540.4807149410336</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
         <v>95.56103444839442</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1883.949150983575</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V31" t="n">
-        <v>1629.264662777688</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W31" t="n">
-        <v>1339.847492740728</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X31" t="n">
-        <v>1111.85794184271</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y31" t="n">
-        <v>891.0653626991802</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="32">
@@ -6676,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483406</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542188</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390115</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O33" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V33" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6916,67 +6916,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
@@ -6992,43 +6992,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
         <v>2125.96131142685</v>
@@ -7037,7 +7037,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7046,22 +7046,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>578.4172407837245</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C37" t="n">
-        <v>409.4810578558177</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D37" t="n">
-        <v>409.4810578558177</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E37" t="n">
-        <v>409.4810578558177</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="F37" t="n">
-        <v>409.4810578558177</v>
+        <v>192.886711630049</v>
       </c>
       <c r="G37" t="n">
-        <v>241.7782212305366</v>
+        <v>192.886711630049</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7125,22 +7125,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
-        <v>1764.65758193153</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U37" t="n">
-        <v>1475.554715057174</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V37" t="n">
-        <v>1270.275454794455</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W37" t="n">
-        <v>980.8582847574944</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X37" t="n">
-        <v>980.8582847574944</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y37" t="n">
-        <v>760.0657056139643</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
         <v>2005.253839749764</v>
@@ -7159,7 +7159,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
         <v>850.213983755162</v>
@@ -7171,34 +7171,34 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S38" t="n">
         <v>4667.761053946815</v>
@@ -7210,16 +7210,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C39" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
         <v>189.2383039390118</v>
@@ -7259,28 +7259,28 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>411.3871648742117</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C40" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D40" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E40" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7359,25 +7359,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1956.343466104704</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T40" t="n">
-        <v>1734.57685067423</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U40" t="n">
-        <v>1445.473983799873</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V40" t="n">
-        <v>1331.23492978296</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W40" t="n">
-        <v>1041.817759745999</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X40" t="n">
-        <v>813.8282088479815</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y40" t="n">
-        <v>593.0356297044514</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="41">
@@ -7411,34 +7411,34 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1898.858917622688</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M41" t="n">
-        <v>2432.390822294613</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N41" t="n">
-        <v>2979.169639353395</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
         <v>4461.783306331037</v>
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C42" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7508,22 +7508,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7596,25 +7596,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T43" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U43" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V43" t="n">
-        <v>999.1036114208126</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W43" t="n">
-        <v>709.6864413838521</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X43" t="n">
-        <v>481.6968904858347</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y43" t="n">
-        <v>260.9043113423046</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="44">
@@ -7639,37 +7639,37 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
@@ -7727,10 +7727,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L45" t="n">
         <v>794.2006632320242</v>
@@ -7745,22 +7745,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7769,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7839,19 +7839,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V46" t="n">
-        <v>999.1036114208126</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W46" t="n">
-        <v>709.6864413838521</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X46" t="n">
-        <v>481.6968904858347</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y46" t="n">
-        <v>260.9043113423046</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
   </sheetData>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8312,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>103.7862464855144</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476853</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8938,10 +8938,10 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>344.7025836476837</v>
       </c>
       <c r="O14" t="n">
-        <v>344.7025836476853</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9169,7 +9169,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476853</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9406,7 +9406,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9643,19 +9643,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>248.8400772687157</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>169.5026663584973</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>297.8289162490797</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>231.5010718068643</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10123,10 +10123,10 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476838</v>
+        <v>258.621178561693</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476838</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>344.7025836476838</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476838</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>122.1790593755388</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -23436,7 +23436,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>16.14213605696671</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>18.96245366221456</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>175.0435200183023</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.0742887270141</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23910,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24147,7 +24147,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>105.0742887270142</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24414,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>105.0742887270134</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>60.06027830989211</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>159.6457400831801</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>71.67627119164513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>214.5414662356956</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>105.0742887270132</v>
       </c>
     </row>
     <row r="32">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>78.08362430779825</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,19 +25365,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>48.91117566373649</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25560,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -25599,7 +25599,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>139.0409798470836</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.14213605696625</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25836,7 +25836,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.14213605696625</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>692394.6160973813</v>
+        <v>692394.6160973815</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>692394.6160973812</v>
+        <v>692394.6160973813</v>
       </c>
     </row>
     <row r="14">
@@ -26316,46 +26316,46 @@
         <v>738937.5928778547</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778546</v>
+        <v>738937.5928778548</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778549</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="E2" t="n">
-        <v>714747.2163965704</v>
+        <v>714747.2163965706</v>
       </c>
       <c r="F2" t="n">
-        <v>714747.2163965706</v>
+        <v>714747.2163965708</v>
       </c>
       <c r="G2" t="n">
+        <v>714747.2163965707</v>
+      </c>
+      <c r="H2" t="n">
+        <v>714747.2163965702</v>
+      </c>
+      <c r="I2" t="n">
+        <v>714747.2163965707</v>
+      </c>
+      <c r="J2" t="n">
         <v>714747.2163965703</v>
       </c>
-      <c r="H2" t="n">
-        <v>714747.2163965703</v>
-      </c>
-      <c r="I2" t="n">
-        <v>714747.2163965704</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>714747.2163965707</v>
-      </c>
-      <c r="K2" t="n">
-        <v>714747.2163965701</v>
       </c>
       <c r="L2" t="n">
         <v>714747.2163965704</v>
       </c>
       <c r="M2" t="n">
+        <v>714747.2163965704</v>
+      </c>
+      <c r="N2" t="n">
+        <v>714747.2163965706</v>
+      </c>
+      <c r="O2" t="n">
+        <v>714747.21639657</v>
+      </c>
+      <c r="P2" t="n">
         <v>714747.2163965701</v>
-      </c>
-      <c r="N2" t="n">
-        <v>714747.2163965702</v>
-      </c>
-      <c r="O2" t="n">
-        <v>714747.2163965701</v>
-      </c>
-      <c r="P2" t="n">
-        <v>714747.2163965708</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,37 +26426,37 @@
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.4923191899</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.4923191899</v>
       </c>
       <c r="H4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="I4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="J4" t="n">
+        <v>18148.49231918993</v>
+      </c>
+      <c r="K4" t="n">
         <v>18148.49231918994</v>
-      </c>
-      <c r="K4" t="n">
-        <v>18148.49231918993</v>
       </c>
       <c r="L4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="M4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="N4" t="n">
+        <v>18148.49231918993</v>
+      </c>
+      <c r="O4" t="n">
         <v>18148.49231918989</v>
-      </c>
-      <c r="O4" t="n">
-        <v>18148.4923191899</v>
       </c>
       <c r="P4" t="n">
         <v>18148.49231918994</v>
@@ -26475,25 +26475,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371366</v>
@@ -26502,10 +26502,10 @@
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
         <v>96383.51825371366</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-117238.0512572271</v>
+        <v>-117238.0512572272</v>
       </c>
       <c r="C6" t="n">
-        <v>472729.8279573172</v>
+        <v>472729.8279573175</v>
       </c>
       <c r="D6" t="n">
-        <v>472729.8279573175</v>
+        <v>472729.8279573173</v>
       </c>
       <c r="E6" t="n">
-        <v>-127834.1630719977</v>
+        <v>-127229.4036599655</v>
       </c>
       <c r="F6" t="n">
-        <v>599543.2509214091</v>
+        <v>600148.0103334414</v>
       </c>
       <c r="G6" t="n">
-        <v>599543.2509214089</v>
+        <v>600148.0103334413</v>
       </c>
       <c r="H6" t="n">
-        <v>599543.2509214089</v>
+        <v>600148.0103334408</v>
       </c>
       <c r="I6" t="n">
-        <v>599543.2509214089</v>
+        <v>600148.0103334413</v>
       </c>
       <c r="J6" t="n">
-        <v>423120.0317288162</v>
+        <v>423724.7911408481</v>
       </c>
       <c r="K6" t="n">
-        <v>599543.2509214086</v>
+        <v>600148.0103334413</v>
       </c>
       <c r="L6" t="n">
-        <v>599543.250921409</v>
+        <v>600148.0103334411</v>
       </c>
       <c r="M6" t="n">
-        <v>469900.9360824638</v>
+        <v>470505.6954944964</v>
       </c>
       <c r="N6" t="n">
-        <v>599543.2509214088</v>
+        <v>600148.0103334412</v>
       </c>
       <c r="O6" t="n">
-        <v>599543.2509214086</v>
+        <v>600148.0103334406</v>
       </c>
       <c r="P6" t="n">
-        <v>599543.2509214093</v>
+        <v>600148.0103334407</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762114</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>85.34635367328923</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>256.4522382895065</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27539,19 +27539,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>63.37316471551392</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>177.2978320982129</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>139.5244652754162</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.793929914413724</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>25.16398464933175</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,7 +27833,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>48.19472341080734</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>120.4387434050067</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>46.83478528866308</v>
       </c>
     </row>
     <row r="11">
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-7.434426879267359e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30510,10 +30510,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-7.434426879267359e-13</v>
       </c>
       <c r="T41" t="n">
-        <v>-8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32800,7 +32800,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
         <v>557.708647897025</v>
@@ -33028,7 +33028,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138796</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34795,10 +34795,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35254,7 +35254,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,25 +35412,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265651</v>
+        <v>440.9775330409149</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359043</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
         <v>125.3296184152072</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,25 +35649,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>897.0044190605952</v>
       </c>
       <c r="O14" t="n">
-        <v>852.7555845359043</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
         <v>125.3296184152072</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,25 +35886,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359043</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,25 +36123,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>800.2926980400157</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,19 +36363,19 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>787.7611930989425</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
         <v>463.1092954636242</v>
@@ -36448,7 +36448,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
         <v>415.1124034525806</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>506.6939529138978</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>753.4190306414118</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222478</v>
@@ -36676,7 +36676,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340054</v>
@@ -36834,7 +36834,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>568.6923583622648</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
@@ -36843,10 +36843,10 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>852.7555845359029</v>
+        <v>766.6741794499121</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359029</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>800.2926980400159</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359029</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
